--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/3_PCT/Mark Input Sheet ANL 2021.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/3_PCT/Mark Input Sheet ANL 2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\3_PCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\3_PCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BFBC61-BBD6-4B62-A0B8-C129FE1B047A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="900" windowWidth="25635" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29880" yWindow="900" windowWidth="25635" windowHeight="14325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marks!$A$1:$F$34</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -477,7 +476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
@@ -873,9 +872,6 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,6 +936,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -975,7 +974,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1014,6 +1013,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1111,19 +1111,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>3.0303030303030304E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.21212121212121213</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.27272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.0303030303030304E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1132,7 +1132,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.27272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1146,7 +1146,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-39FF-473B-BEE7-83D83E1872D7}"/>
             </c:ext>
@@ -1162,11 +1162,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="536669944"/>
-        <c:axId val="536669552"/>
+        <c:axId val="399933472"/>
+        <c:axId val="399940528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="536669944"/>
+        <c:axId val="399933472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536669552"/>
+        <c:crossAx val="399940528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1217,7 +1217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="536669552"/>
+        <c:axId val="399940528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1254,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536669944"/>
+        <c:crossAx val="399933472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1304,7 +1304,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1475,7 +1475,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78EB-4234-8185-F5ED9BB6C945}"/>
             </c:ext>
@@ -1491,11 +1491,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="536670728"/>
-        <c:axId val="115326064"/>
+        <c:axId val="399933080"/>
+        <c:axId val="399933864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="536670728"/>
+        <c:axId val="399933080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115326064"/>
+        <c:crossAx val="399933864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1546,7 +1546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115326064"/>
+        <c:axId val="399933864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536670728"/>
+        <c:crossAx val="399933080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2738,7 +2738,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2774,7 @@
         <xdr:cNvPr id="2" name="Down Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2834,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2903,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,7 +3046,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3331,11 +3331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,7 +3367,10 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="8">
+        <f>Marks!E2</f>
+        <v>50</v>
+      </c>
       <c r="E2" s="18"/>
       <c r="F2" s="1"/>
     </row>
@@ -3375,46 +3378,58 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8">
+        <f>Marks!E3</f>
+        <v>50</v>
+      </c>
       <c r="E3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="12">
         <f>COUNTIF($B$2:$B$61,"&gt;=0")</f>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8">
+        <f>Marks!E4</f>
+        <v>82</v>
+      </c>
       <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="str">
+      <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v/>
+        <v>68.666666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8">
+        <f>Marks!E5</f>
+        <v>50</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="str">
+      <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v/>
+        <v>12.675435561221041</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <f>Marks!E6</f>
+        <v>70</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3425,7 +3440,10 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8">
+        <f>Marks!E7</f>
+        <v>50</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
@@ -3446,7 +3464,10 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8">
+        <f>Marks!E8</f>
+        <v>80</v>
+      </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
@@ -3459,16 +3480,19 @@
       <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="19" t="str">
+      <c r="I8" s="19">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3,"")</f>
-        <v/>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <f>Marks!E9</f>
+        <v>65.999999999999986</v>
+      </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
@@ -3481,16 +3505,19 @@
       <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="16" t="str">
+      <c r="I9" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
-        <v/>
+        <v>0.21212121212121213</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <f>Marks!E10</f>
+        <v>90</v>
+      </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
@@ -3503,16 +3530,19 @@
       <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="16" t="str">
+      <c r="I10" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
-        <v/>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <f>Marks!E11</f>
+        <v>70</v>
+      </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
@@ -3525,16 +3555,19 @@
       <c r="H11" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
-        <v/>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8">
+        <f>Marks!E12</f>
+        <v>76</v>
+      </c>
       <c r="E12" t="s">
         <v>31</v>
       </c>
@@ -3547,16 +3580,19 @@
       <c r="H12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="16" t="str">
+      <c r="I12" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v/>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <f>Marks!E13</f>
+        <v>76</v>
+      </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
@@ -3569,16 +3605,19 @@
       <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="16" t="str">
+      <c r="I13" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8">
+        <f>Marks!E14</f>
+        <v>70</v>
+      </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
@@ -3591,16 +3630,19 @@
       <c r="H14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="16" t="str">
+      <c r="I14" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;60")-COUNTIF($B$2:$B$61,"&lt;55"))/$F$3,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8">
+        <f>Marks!E15</f>
+        <v>70</v>
+      </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
@@ -3613,16 +3655,19 @@
       <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50"))/$F$3,"")</f>
-        <v/>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="8">
+        <f>Marks!E16</f>
+        <v>76</v>
+      </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
@@ -3635,16 +3680,19 @@
       <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="16" t="str">
+      <c r="I16" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45"))/$F$3,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8">
+        <f>Marks!E17</f>
+        <v>50</v>
+      </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
@@ -3657,16 +3705,19 @@
       <c r="H17" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="16" t="str">
+      <c r="I17" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;45")-COUNTIF($B$2:$B$61,"&lt;40"))/$F$3,"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8">
+        <f>Marks!E18</f>
+        <v>80</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
@@ -3679,116 +3730,164 @@
       <c r="H18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="17" t="str">
+      <c r="I18" s="17">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="8">
+        <f>Marks!E19</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="8">
+        <f>Marks!E20</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="8">
+        <f>Marks!E21</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="8">
+        <f>Marks!E22</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="8">
+        <f>Marks!E23</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="8">
+        <f>Marks!E24</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="8">
+        <f>Marks!E25</f>
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8">
+        <f>Marks!E26</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8">
+        <f>Marks!E27</f>
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="8">
+        <f>Marks!E28</f>
+        <v>84.000000000000014</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="8">
+        <f>Marks!E29</f>
+        <v>76</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="8">
+        <f>Marks!E30</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="8">
+        <f>Marks!E31</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="8">
+        <f>Marks!E32</f>
+        <v>84.000000000000014</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="8">
+        <f>Marks!E33</f>
+        <v>76</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="D34" s="20" t="s">
+      <c r="B34" s="8">
+        <f>Marks!E34</f>
+        <v>80</v>
+      </c>
+      <c r="D34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -3963,11 +4062,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3976,581 +4075,647 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FCE937-D79D-41DD-B1DB-7A844447D33F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="26"/>
-    <col min="7" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="40.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="25"/>
+    <col min="7" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32">
-        <f>SUM(D2:D2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="26">
+      <c r="D2" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="31">
+        <f>SUM(D2:D2)/5*100</f>
+        <v>50</v>
+      </c>
+      <c r="F2" s="25">
         <f>1+15+4+15+10+25+15+15</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37">
-        <f>SUM(D3:D3)</f>
-        <v>0</v>
+      <c r="D3" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="36">
+        <f t="shared" ref="E3:E34" si="0">SUM(D3:D3)/5*100</f>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37">
-        <f>SUM(D4:D4)</f>
-        <v>0</v>
+      <c r="D4" s="35">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E4" s="36">
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37">
-        <f>SUM(D5:D5)</f>
-        <v>0</v>
+      <c r="D5" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="36">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37">
-        <f>SUM(D6:D6)</f>
-        <v>0</v>
+      <c r="D6" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="36">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37">
-        <f>SUM(D7:D7)</f>
-        <v>0</v>
+      <c r="D7" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="36">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37">
-        <f>SUM(D8:D8)</f>
-        <v>0</v>
+      <c r="D8" s="35">
+        <v>4</v>
+      </c>
+      <c r="E8" s="36">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37">
-        <f>SUM(D9:D9)</f>
-        <v>0</v>
+      <c r="D9" s="35">
+        <v>3.3</v>
+      </c>
+      <c r="E9" s="36">
+        <f t="shared" si="0"/>
+        <v>65.999999999999986</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37">
-        <f>SUM(D10:D10)</f>
-        <v>0</v>
+      <c r="D10" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="36">
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37">
-        <f>SUM(D11:D11)</f>
-        <v>0</v>
+      <c r="D11" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E11" s="36">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37">
-        <f>SUM(D12:D12)</f>
-        <v>0</v>
+      <c r="D12" s="35">
+        <v>3.8</v>
+      </c>
+      <c r="E12" s="36">
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37">
-        <f>SUM(D13:D13)</f>
-        <v>0</v>
+      <c r="D13" s="35">
+        <v>3.8</v>
+      </c>
+      <c r="E13" s="36">
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37">
-        <f>SUM(D14:D14)</f>
-        <v>0</v>
+      <c r="D14" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E14" s="36">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37">
-        <f>SUM(D15:D15)</f>
-        <v>0</v>
+      <c r="D15" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E15" s="36">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37">
-        <f>SUM(D16:D16)</f>
-        <v>0</v>
+      <c r="D16" s="35">
+        <v>3.8</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37">
-        <f>SUM(D17:D17)</f>
-        <v>0</v>
+      <c r="D17" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E17" s="36">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37">
-        <f>SUM(D18:D18)</f>
-        <v>0</v>
+      <c r="D18" s="35">
+        <v>4</v>
+      </c>
+      <c r="E18" s="36">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37">
-        <f>SUM(D19:D19)</f>
-        <v>0</v>
+      <c r="D19" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E19" s="36">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37">
-        <f>SUM(D20:D20)</f>
-        <v>0</v>
+      <c r="D20" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E20" s="36">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37">
-        <f>SUM(D21:D21)</f>
-        <v>0</v>
+      <c r="D21" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E21" s="36">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37">
-        <f>SUM(D22:D22)</f>
-        <v>0</v>
+      <c r="D22" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E22" s="36">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37">
-        <f>SUM(D23:D23)</f>
-        <v>0</v>
+      <c r="D23" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E23" s="36">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37">
-        <f>SUM(D24:D24)</f>
-        <v>0</v>
+      <c r="D24" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E24" s="36">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37">
-        <f>SUM(D25:D25)</f>
-        <v>0</v>
+      <c r="D25" s="35">
+        <v>3.6</v>
+      </c>
+      <c r="E25" s="36">
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37">
-        <f>SUM(D26:D26)</f>
-        <v>0</v>
+      <c r="D26" s="35">
+        <v>4</v>
+      </c>
+      <c r="E26" s="36">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37">
-        <f>SUM(D27:D27)</f>
-        <v>0</v>
+      <c r="D27" s="35">
+        <v>3.9</v>
+      </c>
+      <c r="E27" s="36">
+        <f t="shared" si="0"/>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37">
-        <f>SUM(D28:D28)</f>
-        <v>0</v>
+      <c r="D28" s="35">
+        <v>4.2</v>
+      </c>
+      <c r="E28" s="36">
+        <f t="shared" si="0"/>
+        <v>84.000000000000014</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37">
-        <f>SUM(D29:D29)</f>
-        <v>0</v>
+      <c r="D29" s="35">
+        <v>3.8</v>
+      </c>
+      <c r="E29" s="36">
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37">
-        <f>SUM(D30:D30)</f>
-        <v>0</v>
+      <c r="D30" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E30" s="36">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37">
-        <f>SUM(D31:D31)</f>
-        <v>0</v>
+      <c r="D31" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E31" s="36">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37">
-        <f>SUM(D32:D32)</f>
-        <v>0</v>
+      <c r="D32" s="35">
+        <v>4.2</v>
+      </c>
+      <c r="E32" s="36">
+        <f t="shared" si="0"/>
+        <v>84.000000000000014</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37">
-        <f>SUM(D33:D33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="42" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="D33" s="35">
+        <v>3.8</v>
+      </c>
+      <c r="E33" s="36">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="41" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="41">
-        <f>SUM(D34:D34)</f>
-        <v>0</v>
+      <c r="D34" s="37">
+        <v>4</v>
+      </c>
+      <c r="E34" s="40">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F34" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:F34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5221,8 +5386,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>

--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/3_PCT/Mark Input Sheet ANL 2021.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/3_PCT/Mark Input Sheet ANL 2021.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="900" windowWidth="25635" windowHeight="14325" activeTab="1"/>
+    <workbookView xWindow="29880" yWindow="900" windowWidth="25635" windowHeight="14325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
     <sheet name="Marks" sheetId="3" r:id="rId2"/>
-    <sheet name="Example" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Marks_sorted" sheetId="4" r:id="rId3"/>
+    <sheet name="Example" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marks!$A$1:$F$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Marks_sorted!$A$1:$F$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="144">
   <si>
     <t>Mark</t>
   </si>
@@ -839,7 +841,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -939,6 +941,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1013,7 +1042,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1162,11 +1190,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="399933472"/>
-        <c:axId val="399940528"/>
+        <c:axId val="400480104"/>
+        <c:axId val="400476968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399933472"/>
+        <c:axId val="400480104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1237,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399940528"/>
+        <c:crossAx val="400476968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1217,7 +1245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399940528"/>
+        <c:axId val="400476968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399933472"/>
+        <c:crossAx val="400480104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1491,11 +1519,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="399933080"/>
-        <c:axId val="399933864"/>
+        <c:axId val="400475400"/>
+        <c:axId val="400482456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399933080"/>
+        <c:axId val="400475400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399933864"/>
+        <c:crossAx val="400482456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1546,7 +1574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399933864"/>
+        <c:axId val="400482456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399933080"/>
+        <c:crossAx val="400475400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2738,7 +2766,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2802,7 @@
         <xdr:cNvPr id="2" name="Down Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2862,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2931,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,7 +3074,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4078,7 +4106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -4715,6 +4743,652 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="25"/>
+    <col min="7" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="30">
+        <v>3.6</v>
+      </c>
+      <c r="E2" s="31">
+        <f>SUM(D2:D2)/5*100</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E3" s="36">
+        <f>SUM(D3:D3)/5*100</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="36">
+        <f>SUM(D4:D4)/5*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="43">
+        <v>4</v>
+      </c>
+      <c r="E5" s="50">
+        <f>SUM(D5:D5)/5*100</f>
+        <v>80</v>
+      </c>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="36">
+        <f>SUM(D6:D6)/5*100</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="35">
+        <v>4</v>
+      </c>
+      <c r="E7" s="36">
+        <f>SUM(D7:D7)/5*100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E8" s="36">
+        <f>SUM(D8:D8)/5*100</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="35">
+        <v>4.2</v>
+      </c>
+      <c r="E9" s="36">
+        <f>SUM(D9:D9)/5*100</f>
+        <v>84.000000000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="36">
+        <f>SUM(D10:D10)/5*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="35">
+        <v>3.8</v>
+      </c>
+      <c r="E11" s="36">
+        <f>SUM(D11:D11)/5*100</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="E12" s="36">
+        <f>SUM(D12:D12)/5*100</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="36">
+        <f>SUM(D13:D13)/5*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E14" s="36">
+        <f>SUM(D14:D14)/5*100</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E15" s="36">
+        <f>SUM(D15:D15)/5*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="35">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E16" s="36">
+        <f>SUM(D16:D16)/5*100</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="35">
+        <v>3.9</v>
+      </c>
+      <c r="E17" s="36">
+        <f>SUM(D17:D17)/5*100</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="35">
+        <v>3.8</v>
+      </c>
+      <c r="E18" s="36">
+        <f>SUM(D18:D18)/5*100</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="35">
+        <v>4</v>
+      </c>
+      <c r="E19" s="36">
+        <f>SUM(D19:D19)/5*100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="36">
+        <f>SUM(D20:D20)/5*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E21" s="36">
+        <f>SUM(D21:D21)/5*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="35">
+        <v>3.8</v>
+      </c>
+      <c r="E22" s="36">
+        <f>SUM(D22:D22)/5*100</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="36">
+        <f>SUM(D23:D23)/5*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="35">
+        <v>4.2</v>
+      </c>
+      <c r="E24" s="36">
+        <f>SUM(D24:D24)/5*100</f>
+        <v>84.000000000000014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E25" s="36">
+        <f>SUM(D25:D25)/5*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="35">
+        <v>3.8</v>
+      </c>
+      <c r="E26" s="36">
+        <f>SUM(D26:D26)/5*100</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="35">
+        <v>3.3</v>
+      </c>
+      <c r="E27" s="36">
+        <f>SUM(D27:D27)/5*100</f>
+        <v>65.999999999999986</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E28" s="36">
+        <f>SUM(D28:D28)/5*100</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E29" s="36">
+        <f>SUM(D29:D29)/5*100</f>
+        <v>50</v>
+      </c>
+      <c r="F29" s="25">
+        <f>1+15+4+15+10+25+15+15</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E30" s="36">
+        <f>SUM(D30:D30)/5*100</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="35">
+        <v>3.8</v>
+      </c>
+      <c r="E31" s="36">
+        <f>SUM(D31:D31)/5*100</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E32" s="36">
+        <f>SUM(D32:D32)/5*100</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="E33" s="36">
+        <f>SUM(D33:D33)/5*100</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="41" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="49">
+        <v>4</v>
+      </c>
+      <c r="E34" s="51">
+        <f>SUM(D34:D34)/5*100</f>
+        <v>80</v>
+      </c>
+      <c r="F34" s="25"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F34">
+    <sortState ref="A2:F34">
+      <sortCondition ref="A2:A34"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
